--- a/51EQ/src/main/resources/excel/Req_Bill_Sum_Supplier_Template.xlsx
+++ b/51EQ/src/main/resources/excel/Req_Bill_Sum_Supplier_Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="300" windowWidth="17020" windowHeight="11580"/>
+    <workbookView xWindow="500" yWindow="4980" windowWidth="29320" windowHeight="15080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>条码</t>
   </si>
@@ -47,31 +47,65 @@
     <t>${reqBill.productName}</t>
   </si>
   <si>
+    <t>要货申请单(合计)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考进价</t>
+  </si>
+  <si>
+    <t>${reqBill.refPrice}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${orgNameList}" var="orgName" varStatus="status"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${orgName.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reqBill.supplierName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${reqBill.appNum}</t>
-  </si>
-  <si>
-    <t>${reqBill.supplierName}</t>
-  </si>
-  <si>
-    <t>要货申请单(合计)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考进价</t>
-  </si>
-  <si>
-    <t>${reqBill.refPrice}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${orgReqBill.appNum}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${reqBill.orgReqBillList}" var="orgReqBill"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天库销比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reqBill.stockQty}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reqBill.stockRatio}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +136,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,6 +169,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,11 +222,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -178,9 +268,47 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="30">
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -578,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -594,9 +722,9 @@
     <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25">
+    <row r="1" spans="1:12" ht="25">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -604,7 +732,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:12" ht="28">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -618,13 +746,28 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -632,9 +775,9 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -643,14 +786,29 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1"/>
+      <c r="H4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -664,7 +822,7 @@
   <pageSetup paperSize="9" scale="68" orientation="portrait" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
